--- a/dist/document/dest/2020/10/doctors/169.xlsx
+++ b/dist/document/dest/2020/10/doctors/169.xlsx
@@ -404,9 +404,6 @@
       <c r="B2" s="1">
         <v>195</v>
       </c>
-      <c r="C2" s="1">
-        <v>1308450</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -415,9 +412,6 @@
       <c r="B3" s="1">
         <v>330</v>
       </c>
-      <c r="C3" s="1">
-        <v>2722500</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -426,9 +420,6 @@
       <c r="B4" s="1">
         <v>55</v>
       </c>
-      <c r="C4" s="1">
-        <v>417450</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -437,9 +428,6 @@
       <c r="B5" s="1">
         <v>62</v>
       </c>
-      <c r="C5" s="1">
-        <v>142600</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -448,9 +436,6 @@
       <c r="B6" s="1">
         <v>490</v>
       </c>
-      <c r="C6" s="1">
-        <v>3180100</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -459,9 +444,6 @@
       <c r="B7" s="1">
         <v>486</v>
       </c>
-      <c r="C7" s="1">
-        <v>3742200</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -470,9 +452,6 @@
       <c r="B8" s="1">
         <v>14</v>
       </c>
-      <c r="C8" s="1">
-        <v>41860</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -481,9 +460,6 @@
       <c r="B9" s="1">
         <v>688</v>
       </c>
-      <c r="C9" s="1">
-        <v>5221920</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -492,9 +468,6 @@
       <c r="B10" s="1">
         <v>246</v>
       </c>
-      <c r="C10" s="1">
-        <v>1131600</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
@@ -503,9 +476,6 @@
       <c r="B11" s="1">
         <v>31</v>
       </c>
-      <c r="C11" s="1">
-        <v>570400</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
@@ -514,9 +484,6 @@
       <c r="B12" s="1">
         <v>45</v>
       </c>
-      <c r="C12" s="1">
-        <v>336600</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -525,9 +492,6 @@
       <c r="B13" s="1">
         <v>113</v>
       </c>
-      <c r="C13" s="1">
-        <v>932250</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
@@ -536,9 +500,6 @@
       <c r="B14" s="1">
         <v>746</v>
       </c>
-      <c r="C14" s="1">
-        <v>3386840</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
@@ -547,9 +508,6 @@
       <c r="B15" s="1">
         <v>74</v>
       </c>
-      <c r="C15" s="1">
-        <v>431420</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
@@ -558,9 +516,6 @@
       <c r="B16" s="1">
         <v>15</v>
       </c>
-      <c r="C16" s="1">
-        <v>146850</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
@@ -569,9 +524,6 @@
       <c r="B17" s="1">
         <v>643</v>
       </c>
-      <c r="C17" s="1">
-        <v>1658940</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
@@ -580,9 +532,6 @@
       <c r="B18" s="1">
         <v>66</v>
       </c>
-      <c r="C18" s="1">
-        <v>475530</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
@@ -591,9 +540,6 @@
       <c r="B19" s="1">
         <v>118</v>
       </c>
-      <c r="C19" s="1">
-        <v>1687400</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
@@ -602,9 +548,6 @@
       <c r="B20" s="1">
         <v>99</v>
       </c>
-      <c r="C20" s="1">
-        <v>1306800</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
@@ -613,9 +556,6 @@
       <c r="B21" s="1">
         <v>15</v>
       </c>
-      <c r="C21" s="1">
-        <v>95700</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
@@ -624,9 +564,6 @@
       <c r="B22" s="1">
         <v>202</v>
       </c>
-      <c r="C22" s="1">
-        <v>1377640</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
@@ -635,9 +572,6 @@
       <c r="B23" s="1">
         <v>45</v>
       </c>
-      <c r="C23" s="1">
-        <v>3861000</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
@@ -646,9 +580,6 @@
       <c r="B24" s="1">
         <v>145</v>
       </c>
-      <c r="C24" s="1">
-        <v>2233000</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
@@ -657,9 +588,6 @@
       <c r="B25" s="1">
         <v>30</v>
       </c>
-      <c r="C25" s="1">
-        <v>6900</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
@@ -668,9 +596,6 @@
       <c r="B26" s="1">
         <v>109</v>
       </c>
-      <c r="C26" s="1">
-        <v>376050</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
@@ -679,9 +604,6 @@
       <c r="B27" s="1">
         <v>7</v>
       </c>
-      <c r="C27" s="1">
-        <v>21735</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
@@ -690,9 +612,6 @@
       <c r="B28" s="1">
         <v>126</v>
       </c>
-      <c r="C28" s="1">
-        <v>831600</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
@@ -701,9 +620,6 @@
       <c r="B29" s="1">
         <v>54</v>
       </c>
-      <c r="C29" s="1">
-        <v>356400</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
@@ -712,9 +628,6 @@
       <c r="B30" s="1">
         <v>30</v>
       </c>
-      <c r="C30" s="1">
-        <v>181500</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
@@ -723,9 +636,6 @@
       <c r="B31" s="1">
         <v>122</v>
       </c>
-      <c r="C31" s="1">
-        <v>1878800</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
@@ -734,9 +644,6 @@
       <c r="B32" s="1">
         <v>31</v>
       </c>
-      <c r="C32" s="1">
-        <v>525140</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
@@ -745,9 +652,6 @@
       <c r="B33" s="1">
         <v>30</v>
       </c>
-      <c r="C33" s="1">
-        <v>356400</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
@@ -756,9 +660,6 @@
       <c r="B34" s="1">
         <v>77</v>
       </c>
-      <c r="C34" s="1">
-        <v>889350</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
@@ -767,9 +668,6 @@
       <c r="B35" s="1">
         <v>35</v>
       </c>
-      <c r="C35" s="1">
-        <v>558250</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
@@ -778,9 +676,6 @@
       <c r="B36" s="1">
         <v>145</v>
       </c>
-      <c r="C36" s="1">
-        <v>2233000</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
@@ -789,9 +684,6 @@
       <c r="B37" s="1">
         <v>30</v>
       </c>
-      <c r="C37" s="1">
-        <v>144900</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
@@ -800,9 +692,6 @@
       <c r="B38" s="1">
         <v>32</v>
       </c>
-      <c r="C38" s="1">
-        <v>36800</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
@@ -811,9 +700,6 @@
       <c r="B39" s="1">
         <v>90</v>
       </c>
-      <c r="C39" s="1">
-        <v>891000</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
@@ -822,9 +708,6 @@
       <c r="B40" s="1">
         <v>20</v>
       </c>
-      <c r="C40" s="1">
-        <v>116600</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
@@ -833,9 +716,6 @@
       <c r="B41" s="1">
         <v>210</v>
       </c>
-      <c r="C41" s="1">
-        <v>3049200</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
@@ -844,9 +724,6 @@
       <c r="B42" s="1">
         <v>121</v>
       </c>
-      <c r="C42" s="1">
-        <v>2129600</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
@@ -855,9 +732,6 @@
       <c r="B43" s="1">
         <v>304</v>
       </c>
-      <c r="C43" s="1">
-        <v>1188640</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
@@ -866,9 +740,6 @@
       <c r="B44" s="1">
         <v>80</v>
       </c>
-      <c r="C44" s="1">
-        <v>1584000</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
@@ -877,9 +748,6 @@
       <c r="B45" s="1">
         <v>106</v>
       </c>
-      <c r="C45" s="1">
-        <v>377890</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
@@ -888,9 +756,6 @@
       <c r="B46" s="1">
         <v>15</v>
       </c>
-      <c r="C46" s="1">
-        <v>145200</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
@@ -899,9 +764,6 @@
       <c r="B47" s="1">
         <v>200</v>
       </c>
-      <c r="C47" s="1">
-        <v>1540000</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
@@ -910,9 +772,6 @@
       <c r="B48" s="1">
         <v>160</v>
       </c>
-      <c r="C48" s="1">
-        <v>1196800</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
@@ -921,9 +780,6 @@
       <c r="B49" s="1">
         <v>20</v>
       </c>
-      <c r="C49" s="1">
-        <v>110400</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
@@ -932,9 +788,6 @@
       <c r="B50" s="1">
         <v>16</v>
       </c>
-      <c r="C50" s="1">
-        <v>86480</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
@@ -943,9 +796,6 @@
       <c r="B51" s="1">
         <v>328</v>
       </c>
-      <c r="C51" s="1">
-        <v>1584240</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
@@ -954,9 +804,6 @@
       <c r="B52" s="1">
         <v>226</v>
       </c>
-      <c r="C52" s="1">
-        <v>1615900</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
@@ -965,9 +812,6 @@
       <c r="B53" s="1">
         <v>307</v>
       </c>
-      <c r="C53" s="1">
-        <v>564880</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
@@ -976,9 +820,6 @@
       <c r="B54" s="1">
         <v>296</v>
       </c>
-      <c r="C54" s="1">
-        <v>816960</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
@@ -987,9 +828,6 @@
       <c r="B55" s="1">
         <v>60</v>
       </c>
-      <c r="C55" s="1">
-        <v>759000</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
@@ -998,9 +836,6 @@
       <c r="B56" s="1">
         <v>78</v>
       </c>
-      <c r="C56" s="1">
-        <v>514800</v>
-      </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
@@ -1009,9 +844,6 @@
       <c r="B57" s="1">
         <v>15</v>
       </c>
-      <c r="C57" s="1">
-        <v>69000</v>
-      </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
@@ -1020,9 +852,6 @@
       <c r="B58" s="1">
         <v>81</v>
       </c>
-      <c r="C58" s="1">
-        <v>465750</v>
-      </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
@@ -1031,9 +860,6 @@
       <c r="B59" s="1">
         <v>30</v>
       </c>
-      <c r="C59" s="1">
-        <v>228300</v>
-      </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
@@ -1042,9 +868,6 @@
       <c r="B60" s="1">
         <v>192</v>
       </c>
-      <c r="C60" s="1">
-        <v>1615680</v>
-      </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
@@ -1053,9 +876,6 @@
       <c r="B61" s="1">
         <v>160</v>
       </c>
-      <c r="C61" s="1">
-        <v>1742400</v>
-      </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
@@ -1064,9 +884,6 @@
       <c r="B62" s="1">
         <v>209</v>
       </c>
-      <c r="C62" s="1">
-        <v>841225</v>
-      </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
@@ -1075,9 +892,6 @@
       <c r="B63" s="1">
         <v>30</v>
       </c>
-      <c r="C63" s="1">
-        <v>198000</v>
-      </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
@@ -1086,9 +900,6 @@
       <c r="B64" s="1">
         <v>60</v>
       </c>
-      <c r="C64" s="1">
-        <v>241500</v>
-      </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
@@ -1097,9 +908,6 @@
       <c r="B65" s="1">
         <v>30</v>
       </c>
-      <c r="C65" s="1">
-        <v>1254000</v>
-      </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
@@ -1108,9 +916,6 @@
       <c r="B66" s="1">
         <v>160</v>
       </c>
-      <c r="C66" s="1">
-        <v>2772000</v>
-      </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
@@ -1119,9 +924,6 @@
       <c r="B67" s="1">
         <v>40</v>
       </c>
-      <c r="C67" s="1">
-        <v>462000</v>
-      </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
@@ -1130,9 +932,6 @@
       <c r="B68" s="1">
         <v>812</v>
       </c>
-      <c r="C68" s="1">
-        <v>7145600</v>
-      </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
@@ -1141,9 +940,6 @@
       <c r="B69" s="1">
         <v>120</v>
       </c>
-      <c r="C69" s="1">
-        <v>924000</v>
-      </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
@@ -1152,9 +948,6 @@
       <c r="B70" s="1">
         <v>160</v>
       </c>
-      <c r="C70" s="1">
-        <v>1478400</v>
-      </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
@@ -1163,9 +956,6 @@
       <c r="B71" s="1">
         <v>160</v>
       </c>
-      <c r="C71" s="1">
-        <v>809600</v>
-      </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
@@ -1174,9 +964,6 @@
       <c r="B72" s="1">
         <v>134</v>
       </c>
-      <c r="C72" s="1">
-        <v>1179200</v>
-      </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
@@ -1185,9 +972,6 @@
       <c r="B73" s="1">
         <v>349</v>
       </c>
-      <c r="C73" s="1">
-        <v>1886345</v>
-      </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
@@ -1196,9 +980,6 @@
       <c r="B74" s="1">
         <v>150</v>
       </c>
-      <c r="C74" s="1">
-        <v>2145000</v>
-      </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
@@ -1207,9 +988,6 @@
       <c r="B75" s="1">
         <v>8</v>
       </c>
-      <c r="C75" s="1">
-        <v>1437600</v>
-      </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
@@ -1218,9 +996,6 @@
       <c r="B76" s="1">
         <v>4</v>
       </c>
-      <c r="C76" s="1">
-        <v>376000</v>
-      </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
@@ -1229,9 +1004,6 @@
       <c r="B77" s="1">
         <v>188</v>
       </c>
-      <c r="C77" s="1">
-        <v>3722400</v>
-      </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
@@ -1240,9 +1012,6 @@
       <c r="B78" s="1">
         <v>60</v>
       </c>
-      <c r="C78" s="1">
-        <v>241500</v>
-      </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
@@ -1251,9 +1020,6 @@
       <c r="B79" s="1">
         <v>67</v>
       </c>
-      <c r="C79" s="1">
-        <v>5527500</v>
-      </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
@@ -1262,9 +1028,6 @@
       <c r="B80" s="1">
         <v>249</v>
       </c>
-      <c r="C80" s="1">
-        <v>715875</v>
-      </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
@@ -1273,9 +1036,6 @@
       <c r="B81" s="1">
         <v>45</v>
       </c>
-      <c r="C81" s="1">
-        <v>4158000</v>
-      </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
@@ -1284,9 +1044,6 @@
       <c r="B82" s="1">
         <v>24</v>
       </c>
-      <c r="C82" s="1">
-        <v>432960</v>
-      </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
@@ -1295,9 +1052,6 @@
       <c r="B83" s="1">
         <v>180</v>
       </c>
-      <c r="C83" s="1">
-        <v>1544400</v>
-      </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
@@ -1306,9 +1060,6 @@
       <c r="B84" s="1">
         <v>30</v>
       </c>
-      <c r="C84" s="1">
-        <v>158700</v>
-      </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
@@ -1317,9 +1068,6 @@
       <c r="B85" s="1">
         <v>168</v>
       </c>
-      <c r="C85" s="1">
-        <v>4620000</v>
-      </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
@@ -1328,9 +1076,6 @@
       <c r="B86" s="1">
         <v>60</v>
       </c>
-      <c r="C86" s="1">
-        <v>627000</v>
-      </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
@@ -1339,9 +1084,6 @@
       <c r="B87" s="1">
         <v>244</v>
       </c>
-      <c r="C87" s="1">
-        <v>2845040</v>
-      </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
@@ -1350,9 +1092,6 @@
       <c r="B88" s="1">
         <v>125</v>
       </c>
-      <c r="C88" s="1">
-        <v>1210000</v>
-      </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
@@ -1362,7 +1101,7 @@
         <v>12762</v>
       </c>
       <c r="C89" s="1">
-        <v>116152440</v>
+        <v>NaN</v>
       </c>
     </row>
   </sheetData>

--- a/dist/document/dest/2020/10/doctors/169.xlsx
+++ b/dist/document/dest/2020/10/doctors/169.xlsx
@@ -376,7 +376,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C89"/>
+  <dimension ref="A1:C203"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -402,711 +402,2226 @@
         <v xml:space="preserve">Alcoclear (Metadoxine 500mg) </v>
       </c>
       <c r="B2" s="1">
-        <v>195</v>
+        <v>60</v>
+      </c>
+      <c r="C2" s="1">
+        <v>402600</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Alcomet (Metadoxine 500mg)</v>
+        <v xml:space="preserve">Alcoclear (Metadoxine 500mg) </v>
       </c>
       <c r="B3" s="1">
-        <v>330</v>
+        <v>30</v>
+      </c>
+      <c r="C3" s="1">
+        <v>201300</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Aleradin (Desloratadine 5mg)</v>
+        <v>Alcomet (Metadoxine 500mg)</v>
       </c>
       <c r="B4" s="1">
-        <v>55</v>
+        <v>16</v>
+      </c>
+      <c r="C4" s="1">
+        <v>132000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Alphachymotrypsin BVP 8400</v>
+        <v>Alcomet (Metadoxine 500mg)</v>
       </c>
       <c r="B5" s="1">
-        <v>62</v>
+        <v>100</v>
+      </c>
+      <c r="C5" s="1">
+        <v>825000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Amursolic (Ursodeoxycholic 150mg)</v>
+        <v>Aleradin (Desloratadine 5mg)</v>
       </c>
       <c r="B6" s="1">
-        <v>490</v>
+        <v>15</v>
+      </c>
+      <c r="C6" s="1">
+        <v>113850</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Azintal Forte (Azintamid, pancreatin, cellulase, simethicon)</v>
+        <v>Aleradin (Desloratadine 5mg)</v>
       </c>
       <c r="B7" s="1">
-        <v>486</v>
+        <v>23</v>
+      </c>
+      <c r="C7" s="1">
+        <v>174570</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Azukon MR (Gliclazide B.P 30mg)</v>
+        <v>Aleradin (Desloratadine 5mg)</v>
       </c>
       <c r="B8" s="1">
-        <v>14</v>
+        <v>8</v>
+      </c>
+      <c r="C8" s="1">
+        <v>60720</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>Banitase (Trimebutin,dehydrocholic, pancreatin, bromelain, simethicone)</v>
+        <v>Aleradin (Desloratadine 5mg)</v>
       </c>
       <c r="B9" s="1">
-        <v>688</v>
+        <v>16</v>
+      </c>
+      <c r="C9" s="1">
+        <v>121440</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>Bentarcin (Thymomodulin 80mg)</v>
+        <v>Alphachymotrypsin BVP 8400</v>
       </c>
       <c r="B10" s="1">
-        <v>246</v>
+        <v>32</v>
+      </c>
+      <c r="C10" s="1">
+        <v>73600</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>Bilclamos Bid 1000mg (Amoxicilin,Clavulanic)</v>
+        <v>Alphachymotrypsin BVP 8400</v>
       </c>
       <c r="B11" s="1">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="C11" s="1">
+        <v>73600</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>Bilomag (Ginkgo biloba 80mg)</v>
+        <v>Alphachymotrypsin BVP 8400</v>
       </c>
       <c r="B12" s="1">
-        <v>45</v>
+        <v>32</v>
+      </c>
+      <c r="C12" s="1">
+        <v>73600</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>Binexmetone (Nabumetone 500mg)</v>
+        <v>Amursolic (Ursodeoxycholic 150mg)</v>
       </c>
       <c r="B13" s="1">
-        <v>113</v>
+        <v>60</v>
+      </c>
+      <c r="C13" s="1">
+        <v>389400</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>Bisnol (Tripotassium dicitrato bismuthate 120mg)</v>
+        <v>Amursolic (Ursodeoxycholic 150mg)</v>
       </c>
       <c r="B14" s="1">
-        <v>746</v>
+        <v>180</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1168200</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>Bonlutin (Glucosamine, chondroitin,fish Oil)</v>
+        <v>Atorcal 20mg (Atorvastatin)</v>
       </c>
       <c r="B15" s="1">
-        <v>74</v>
+        <v>20</v>
+      </c>
+      <c r="C15" s="1">
+        <v>154000</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>Bonzacim (Rosuvastatin 10mg)</v>
+        <v>Azintal Forte (Azintamid, pancreatin, cellulase, simethicon)</v>
       </c>
       <c r="B16" s="1">
-        <v>15</v>
+        <v>120</v>
+      </c>
+      <c r="C16" s="1">
+        <v>924000</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>Bustidin (Trimetazidin 20mg)</v>
+        <v>Azintal Forte (Azintamid, pancreatin, cellulase, simethicon)</v>
       </c>
       <c r="B17" s="1">
-        <v>643</v>
+        <v>60</v>
+      </c>
+      <c r="C17" s="1">
+        <v>462000</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>Camoas (Flavoxat 200mg)</v>
+        <v>Azintal Forte (Azintamid, pancreatin, cellulase, simethicon)</v>
       </c>
       <c r="B18" s="1">
-        <v>66</v>
+        <v>60</v>
+      </c>
+      <c r="C18" s="1">
+        <v>462000</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>Cardorite (Rosuvastatin 20mg)</v>
+        <v>Azintal Forte (Azintamid, pancreatin, cellulase, simethicon)</v>
       </c>
       <c r="B19" s="1">
-        <v>118</v>
+        <v>60</v>
+      </c>
+      <c r="C19" s="1">
+        <v>462000</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>Celevox (Levofloxacin 500mg)</v>
+        <v>Azintal Forte (Azintamid, pancreatin, cellulase, simethicon)</v>
       </c>
       <c r="B20" s="1">
-        <v>99</v>
+        <v>272</v>
+      </c>
+      <c r="C20" s="1">
+        <v>2094400</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>Cenoxib (Celecoxib 200mg)</v>
+        <v>Banitase (Trimebutin,dehydrocholic, pancreatin, bromelain, simethicone)</v>
       </c>
       <c r="B21" s="1">
-        <v>15</v>
+        <v>150</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1138500</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>Cilavef (Celecoxib 200mg)</v>
+        <v>Banitase (Trimebutin,dehydrocholic, pancreatin, bromelain, simethicone)</v>
       </c>
       <c r="B22" s="1">
-        <v>202</v>
+        <v>270</v>
+      </c>
+      <c r="C22" s="1">
+        <v>2049300</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>Cinezole Kit (Clarithromycin,Esomeprazole,Tinidazole)</v>
+        <v>Bentarcin (Thymomodulin 80mg)</v>
       </c>
       <c r="B23" s="1">
-        <v>45</v>
+        <v>60</v>
+      </c>
+      <c r="C23" s="1">
+        <v>276000</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>Clatab (Clarithromycin 500mg)</v>
+        <v>Bilclamos Bid 1000mg (Amoxicilin,Clavulanic)</v>
       </c>
       <c r="B24" s="1">
-        <v>145</v>
+        <v>14</v>
+      </c>
+      <c r="C24" s="1">
+        <v>257600</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>Clorpheniramin 4mg</v>
+        <v>Bilomag (Ginkgo biloba 80mg)</v>
       </c>
       <c r="B25" s="1">
         <v>30</v>
+      </c>
+      <c r="C25" s="1">
+        <v>224400</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>Corbis (Bisoprolol 5mg)</v>
+        <v>Binexmetone (Nabumetone 500mg)</v>
       </c>
       <c r="B26" s="1">
-        <v>109</v>
+        <v>16</v>
+      </c>
+      <c r="C26" s="1">
+        <v>132000</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>Destor (Desloratadine 5mg)</v>
+        <v>Binexmetone (Nabumetone 500mg)</v>
       </c>
       <c r="B27" s="1">
-        <v>7</v>
+        <v>16</v>
+      </c>
+      <c r="C27" s="1">
+        <v>132000</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>E-Cox (Etoricoxib 60mg)</v>
+        <v>Binexmetone (Nabumetone 500mg)</v>
       </c>
       <c r="B28" s="1">
-        <v>126</v>
+        <v>5</v>
+      </c>
+      <c r="C28" s="1">
+        <v>41250</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>Eldosin (Erdosteine 300mg)</v>
+        <v>Binexmetone (Nabumetone 500mg)</v>
       </c>
       <c r="B29" s="1">
-        <v>54</v>
+        <v>90</v>
+      </c>
+      <c r="C29" s="1">
+        <v>742500</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>Enterobella (Bacillus clausii)</v>
+        <v>Bisnol (Tripotassium dicitrato bismuthate 120mg)</v>
       </c>
       <c r="B30" s="1">
-        <v>30</v>
+        <v>210</v>
+      </c>
+      <c r="C30" s="1">
+        <v>953400</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>Esofar (Esomeprazole 40mg)</v>
+        <v>Bonlutin (Glucosamine, chondroitin,fish Oil)</v>
       </c>
       <c r="B31" s="1">
-        <v>122</v>
+        <v>100</v>
+      </c>
+      <c r="C31" s="1">
+        <v>583000</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>Esomaxcare (Esomeprazole 40mg)</v>
+        <v>Bonlutin (Glucosamine, chondroitin,fish Oil)</v>
       </c>
       <c r="B32" s="1">
-        <v>31</v>
+        <v>15</v>
+      </c>
+      <c r="C32" s="1">
+        <v>87450</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>Esotrax (Esomeprazole 20mg)</v>
+        <v>Bustidin (Trimetazidin 20mg)</v>
       </c>
       <c r="B33" s="1">
-        <v>30</v>
+        <v>150</v>
+      </c>
+      <c r="C33" s="1">
+        <v>387000</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>Espacox (Celecoxib 200mg)</v>
+        <v>Bustidin (Trimetazidin 20mg)</v>
       </c>
       <c r="B34" s="1">
-        <v>77</v>
+        <v>15</v>
+      </c>
+      <c r="C34" s="1">
+        <v>38700</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>Febuday (Febuxostat 40mg)</v>
+        <v>Bustidin (Trimetazidin 20mg)</v>
       </c>
       <c r="B35" s="1">
-        <v>35</v>
+        <v>65</v>
+      </c>
+      <c r="C35" s="1">
+        <v>167700</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>Febuxotid VK (Febuxostat 40mg)</v>
+        <v>Bustidin (Trimetazidin 20mg)</v>
       </c>
       <c r="B36" s="1">
-        <v>145</v>
+        <v>30</v>
+      </c>
+      <c r="C36" s="1">
+        <v>77400</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>Fenafex (Fexofenadine 180mg)</v>
+        <v>Bustidin (Trimetazidin 20mg)</v>
       </c>
       <c r="B37" s="1">
-        <v>30</v>
+        <v>120</v>
+      </c>
+      <c r="C37" s="1">
+        <v>309600</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>Flagyl (Metronidazole) 250mg</v>
+        <v>Bustidin (Trimetazidin 20mg)</v>
       </c>
       <c r="B38" s="1">
-        <v>32</v>
+        <v>421</v>
+      </c>
+      <c r="C38" s="1">
+        <v>1086180</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>Flexilor 4 (Lornoxicam 4mg)</v>
+        <v>Camoas (Flavoxat 200mg)</v>
       </c>
       <c r="B39" s="1">
-        <v>90</v>
+        <v>54</v>
+      </c>
+      <c r="C39" s="1">
+        <v>389070</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>Hoanidol (Alfacalcidol 0.5mg)</v>
+        <v>Camoas (Flavoxat 200mg)</v>
       </c>
       <c r="B40" s="1">
-        <v>20</v>
+        <v>24</v>
+      </c>
+      <c r="C40" s="1">
+        <v>172920</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>Hueso (Ursodeoxycholic 300mg)</v>
+        <v>Camoas (Flavoxat 200mg)</v>
       </c>
       <c r="B41" s="1">
-        <v>210</v>
+        <v>24</v>
+      </c>
+      <c r="C41" s="1">
+        <v>172920</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>Iba-mentin 1000/62.5mg (Amoxicilin, clavulanic)</v>
+        <v>Camoas (Flavoxat 200mg)</v>
       </c>
       <c r="B42" s="1">
-        <v>121</v>
+        <v>54</v>
+      </c>
+      <c r="C42" s="1">
+        <v>389070</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>Ibutop (Itoprid 50mg)</v>
+        <v>Celevox (Levofloxacin 500mg)</v>
       </c>
       <c r="B43" s="1">
-        <v>304</v>
+        <v>24</v>
+      </c>
+      <c r="C43" s="1">
+        <v>316800</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>Imenir (Cefdinir 300mg)</v>
+        <v>Celevox (Levofloxacin 500mg)</v>
       </c>
       <c r="B44" s="1">
-        <v>80</v>
+        <v>16</v>
+      </c>
+      <c r="C44" s="1">
+        <v>211200</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>Ipec-Plus (Polymaltose+folic acid+zinc)</v>
+        <v>Cigenol</v>
       </c>
       <c r="B45" s="1">
-        <v>106</v>
+        <v>60</v>
+      </c>
+      <c r="C45" s="1">
+        <v>189600</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>KiddieCal (Calcium, vitamin D&amp;K)</v>
+        <v>Cigenol</v>
       </c>
       <c r="B46" s="1">
-        <v>15</v>
+        <v>60</v>
+      </c>
+      <c r="C46" s="1">
+        <v>189600</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>Legalon (Silymarin 140mg)</v>
+        <v>Cigenol</v>
       </c>
       <c r="B47" s="1">
-        <v>200</v>
+        <v>60</v>
+      </c>
+      <c r="C47" s="1">
+        <v>189600</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>Livosil (Silymarin 140mg)</v>
+        <v>Cilavef (Celecoxib 200mg)</v>
       </c>
       <c r="B48" s="1">
-        <v>160</v>
+        <v>16</v>
+      </c>
+      <c r="C48" s="1">
+        <v>109120</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>Lorista (Losartan 50mg)</v>
+        <v>Cilavef (Celecoxib 200mg)</v>
       </c>
       <c r="B49" s="1">
-        <v>20</v>
+        <v>16</v>
+      </c>
+      <c r="C49" s="1">
+        <v>109120</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>Loxcip (Fexofenadine 180mg)</v>
+        <v>Cilavef (Celecoxib 200mg)</v>
       </c>
       <c r="B50" s="1">
         <v>16</v>
       </c>
+      <c r="C50" s="1">
+        <v>109120</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>Medi-Neuro Ultra (B1 250mg, B6 250mg, B12 100mcg)</v>
+        <v>Cilavef (Celecoxib 200mg)</v>
       </c>
       <c r="B51" s="1">
-        <v>328</v>
+        <v>8</v>
+      </c>
+      <c r="C51" s="1">
+        <v>54560</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>Metadroxyl (Metadoxine 500mg)</v>
+        <v>Cilavef (Celecoxib 200mg)</v>
       </c>
       <c r="B52" s="1">
-        <v>226</v>
+        <v>30</v>
+      </c>
+      <c r="C52" s="1">
+        <v>204600</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>Metozamin (Metformin 850mg)</v>
+        <v>Cilavef (Celecoxib 200mg)</v>
       </c>
       <c r="B53" s="1">
-        <v>307</v>
+        <v>105</v>
+      </c>
+      <c r="C53" s="1">
+        <v>716100</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>Mosad MT (Mosapride 5mg)</v>
+        <v>Cinezole Kit (Clarithromycin,Esomeprazole,Tinidazole)</v>
       </c>
       <c r="B54" s="1">
-        <v>296</v>
+        <v>30</v>
+      </c>
+      <c r="C54" s="1">
+        <v>2574000</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>Nolpaza (Pantoprazole 40mg)</v>
+        <v>Clatab (Clarithromycin 500mg)</v>
       </c>
       <c r="B55" s="1">
-        <v>60</v>
+        <v>106</v>
+      </c>
+      <c r="C55" s="1">
+        <v>1632400</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>Noraquick (Gabapentin 300mg)</v>
+        <v>Corbis (Bisoprolol 5mg)</v>
       </c>
       <c r="B56" s="1">
-        <v>78</v>
+        <v>15</v>
+      </c>
+      <c r="C56" s="1">
+        <v>51750</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>Normodipine (Amlodipine 5mg)</v>
+        <v>Corbis (Bisoprolol 5mg)</v>
       </c>
       <c r="B57" s="1">
-        <v>15</v>
+        <v>60</v>
+      </c>
+      <c r="C57" s="1">
+        <v>207000</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>Oftofacin (Atorvastatin 20mg)</v>
+        <v>Corbis (Bisoprolol 5mg)</v>
       </c>
       <c r="B58" s="1">
-        <v>81</v>
+        <v>60</v>
+      </c>
+      <c r="C58" s="1">
+        <v>207000</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>Onsmix Suspension (Oxethazaine, aluminium, magnesium)</v>
+        <v>Dagocti (Dutasteride 0.5mg)</v>
       </c>
       <c r="B59" s="1">
-        <v>30</v>
+        <v>8</v>
+      </c>
+      <c r="C59" s="1">
+        <v>68640</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>Opecerin (Diacerein 50mg)</v>
+        <v>Diosfort (Diosmin 600mg)</v>
       </c>
       <c r="B60" s="1">
-        <v>192</v>
+        <v>30</v>
+      </c>
+      <c r="C60" s="1">
+        <v>196350</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>Optipan (Diacerhein 50mg)</v>
+        <v>Diosfort (Diosmin 600mg)</v>
       </c>
       <c r="B61" s="1">
-        <v>160</v>
+        <v>8</v>
+      </c>
+      <c r="C61" s="1">
+        <v>52360</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>Otibsil (Otilonium bromid 40mg)</v>
+        <v>E-Cox (Etoricoxib 60mg)</v>
       </c>
       <c r="B62" s="1">
-        <v>209</v>
+        <v>30</v>
+      </c>
+      <c r="C62" s="1">
+        <v>198000</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>Pantonix (Pantoprazole 40mg)</v>
+        <v>E-Cox (Etoricoxib 60mg)</v>
       </c>
       <c r="B63" s="1">
-        <v>30</v>
+        <v>24</v>
+      </c>
+      <c r="C63" s="1">
+        <v>158400</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>Philiver (Carduus, vitamin..)</v>
+        <v>E-Cox (Etoricoxib 60mg)</v>
       </c>
       <c r="B64" s="1">
-        <v>60</v>
+        <v>24</v>
+      </c>
+      <c r="C64" s="1">
+        <v>158400</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>Pilavos (Thiabendazol 500mg)</v>
+        <v>E-Cox (Etoricoxib 60mg)</v>
       </c>
       <c r="B65" s="1">
-        <v>30</v>
+        <v>57</v>
+      </c>
+      <c r="C65" s="1">
+        <v>376200</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>Pitaterol (Pitavastatin 2mg)</v>
+        <v>E-Cox (Etoricoxib 60mg)</v>
       </c>
       <c r="B66" s="1">
-        <v>160</v>
+        <v>48</v>
+      </c>
+      <c r="C66" s="1">
+        <v>316800</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>Prazogood (Esomeprazole 40mg)</v>
+        <v>Eldosin (Erdosteine 300mg)</v>
       </c>
       <c r="B67" s="1">
-        <v>40</v>
+        <v>54</v>
+      </c>
+      <c r="C67" s="1">
+        <v>356400</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>Prohepatis (Ursodesoxycholic 200mg)</v>
+        <v>Enterobella (Bacillus clausii)</v>
       </c>
       <c r="B68" s="1">
-        <v>812</v>
+        <v>30</v>
+      </c>
+      <c r="C68" s="1">
+        <v>181500</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>Reduze (Glucosamine, chondroitin, zingiber, phellodendron amurense)</v>
+        <v>Enterobella (Bacillus clausii)</v>
       </c>
       <c r="B69" s="1">
-        <v>120</v>
+        <v>30</v>
+      </c>
+      <c r="C69" s="1">
+        <v>181500</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>Remem (Ginkgo biloba 120mg)</v>
+        <v>Esomaxcare (Esomeprazole 40mg)</v>
       </c>
       <c r="B70" s="1">
-        <v>160</v>
+        <v>30</v>
+      </c>
+      <c r="C70" s="1">
+        <v>508200</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>Rhaminas (Glucosamine, chondroitin)</v>
+        <v>Esotrax (Esomeprazole 20mg)</v>
       </c>
       <c r="B71" s="1">
-        <v>160</v>
+        <v>30</v>
+      </c>
+      <c r="C71" s="1">
+        <v>356400</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>Rosutrox (Rosuvastatin 10mg)</v>
+        <v>Esotrax (Esomeprazole 20mg)</v>
       </c>
       <c r="B72" s="1">
-        <v>134</v>
+        <v>24</v>
+      </c>
+      <c r="C72" s="1">
+        <v>285120</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>Seovigo (Ginkgo biloba 80mg)</v>
+        <v>Esotrax (Esomeprazole 20mg)</v>
       </c>
       <c r="B73" s="1">
-        <v>349</v>
+        <v>15</v>
+      </c>
+      <c r="C73" s="1">
+        <v>178200</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>Sotig (Esomeprazole 40mg)</v>
+        <v>Espacox (Celecoxib 200mg)</v>
       </c>
       <c r="B74" s="1">
-        <v>150</v>
+        <v>10</v>
+      </c>
+      <c r="C74" s="1">
+        <v>115500</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>Sotinin</v>
+        <v>Espacox (Celecoxib 200mg)</v>
       </c>
       <c r="B75" s="1">
-        <v>8</v>
+        <v>67</v>
+      </c>
+      <c r="C75" s="1">
+        <v>773850</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>Stromectin (Ivermectin 6mg)</v>
+        <v>Espacox (Celecoxib 200mg)</v>
       </c>
       <c r="B76" s="1">
-        <v>4</v>
+        <v>8</v>
+      </c>
+      <c r="C76" s="1">
+        <v>92400</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>SunnyRoitin (Citicoline 500mg)</v>
+        <v>Febuxotid VK (Febuxostat 40mg)</v>
       </c>
       <c r="B77" s="1">
-        <v>188</v>
+        <v>30</v>
+      </c>
+      <c r="C77" s="1">
+        <v>462000</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>Targinos (Arginine 400mg)</v>
+        <v>Febuxotid VK (Febuxostat 40mg)</v>
       </c>
       <c r="B78" s="1">
-        <v>60</v>
+        <v>30</v>
+      </c>
+      <c r="C78" s="1">
+        <v>462000</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>Troxipe kit (Clarithromycin, esomeprazole, tinidazol)</v>
+        <v>Febuxotid VK (Febuxostat 40mg)</v>
       </c>
       <c r="B79" s="1">
-        <v>67</v>
+        <v>30</v>
+      </c>
+      <c r="C79" s="1">
+        <v>462000</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>Verist (Betahistine 16mg)</v>
+        <v>Fenafex (Fexofenadine 180mg)</v>
       </c>
       <c r="B80" s="1">
-        <v>249</v>
+        <v>16</v>
+      </c>
+      <c r="C80" s="1">
+        <v>77280</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>Vespratab kit (Clarithromycin, tinidazole, esomeprazole)</v>
+        <v>Flagyl (Metronidazole) 250mg</v>
       </c>
       <c r="B81" s="1">
         <v>45</v>
       </c>
+      <c r="C81" s="1">
+        <v>51750</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>Vexinir (Cefdinir 300mg)</v>
+        <v>Flexilor 4 (Lornoxicam 4mg)</v>
       </c>
       <c r="B82" s="1">
-        <v>24</v>
+        <v>15</v>
+      </c>
+      <c r="C82" s="1">
+        <v>148500</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>Vigorito (Vildagliptin 50mg)</v>
+        <v>Flexilor 4 (Lornoxicam 4mg)</v>
       </c>
       <c r="B83" s="1">
-        <v>180</v>
+        <v>15</v>
+      </c>
+      <c r="C83" s="1">
+        <v>148500</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>Zedcal-OP (Calcium, zinc, D3)</v>
+        <v>Hoanidol (Alfacalcidol 0.5mg)</v>
       </c>
       <c r="B84" s="1">
         <v>30</v>
+      </c>
+      <c r="C84" s="1">
+        <v>174900</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>Zinecox (Cefditoren 200mg)</v>
+        <v>Hoanidol (Alfacalcidol 0.5mg)</v>
       </c>
       <c r="B85" s="1">
-        <v>168</v>
+        <v>60</v>
+      </c>
+      <c r="C85" s="1">
+        <v>349800</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>Zlatko-50 (Sitagliptin)</v>
+        <v>Hueso (Ursodeoxycholic 300mg)</v>
       </c>
       <c r="B86" s="1">
         <v>60</v>
+      </c>
+      <c r="C86" s="1">
+        <v>871200</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>Zuiver (Ursodeoxycholic acid 300mg)</v>
+        <v>Hueso (Ursodeoxycholic 300mg)</v>
       </c>
       <c r="B87" s="1">
-        <v>244</v>
+        <v>16</v>
+      </c>
+      <c r="C87" s="1">
+        <v>232320</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v xml:space="preserve">Zytovyrin S (Simvastatin,ezetimib) </v>
+        <v>Hueso (Ursodeoxycholic 300mg)</v>
       </c>
       <c r="B88" s="1">
-        <v>125</v>
+        <v>160</v>
+      </c>
+      <c r="C88" s="1">
+        <v>2323200</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
+        <v>Iba-mentin 1000/62.5mg (Amoxicilin, clavulanic)</v>
+      </c>
+      <c r="B89" s="1">
+        <v>15</v>
+      </c>
+      <c r="C89" s="1">
+        <v>264000</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="str">
+        <v>Iba-mentin 1000/62.5mg (Amoxicilin, clavulanic)</v>
+      </c>
+      <c r="B90" s="1">
+        <v>8</v>
+      </c>
+      <c r="C90" s="1">
+        <v>140800</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="str">
+        <v>Iba-mentin 1000/62.5mg (Amoxicilin, clavulanic)</v>
+      </c>
+      <c r="B91" s="1">
+        <v>16</v>
+      </c>
+      <c r="C91" s="1">
+        <v>281600</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="str">
+        <v>Iba-mentin 1000/62.5mg (Amoxicilin, clavulanic)</v>
+      </c>
+      <c r="B92" s="1">
+        <v>8</v>
+      </c>
+      <c r="C92" s="1">
+        <v>140800</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="str">
+        <v>Ibutop (Itoprid 50mg)</v>
+      </c>
+      <c r="B93" s="1">
+        <v>60</v>
+      </c>
+      <c r="C93" s="1">
+        <v>234600</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="str">
+        <v>Ibutop (Itoprid 50mg)</v>
+      </c>
+      <c r="B94" s="1">
+        <v>60</v>
+      </c>
+      <c r="C94" s="1">
+        <v>234600</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="str">
+        <v>Ibutop (Itoprid 50mg)</v>
+      </c>
+      <c r="B95" s="1">
+        <v>92</v>
+      </c>
+      <c r="C95" s="1">
+        <v>359720</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="str">
+        <v>Ibutop (Itoprid 50mg)</v>
+      </c>
+      <c r="B96" s="1">
+        <v>60</v>
+      </c>
+      <c r="C96" s="1">
+        <v>234600</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="str">
+        <v>Ibutop (Itoprid 50mg)</v>
+      </c>
+      <c r="B97" s="1">
+        <v>30</v>
+      </c>
+      <c r="C97" s="1">
+        <v>117300</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="str">
+        <v>Ibutop (Itoprid 50mg)</v>
+      </c>
+      <c r="B98" s="1">
+        <v>60</v>
+      </c>
+      <c r="C98" s="1">
+        <v>234600</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="str">
+        <v>Imenir (Cefdinir 300mg)</v>
+      </c>
+      <c r="B99" s="1">
+        <v>48</v>
+      </c>
+      <c r="C99" s="1">
+        <v>950400</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="str">
+        <v>Imenir (Cefdinir 300mg)</v>
+      </c>
+      <c r="B100" s="1">
+        <v>24</v>
+      </c>
+      <c r="C100" s="1">
+        <v>475200</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="str">
+        <v>Ipec-Plus (Polymaltose+folic acid+zinc)</v>
+      </c>
+      <c r="B101" s="1">
+        <v>60</v>
+      </c>
+      <c r="C101" s="1">
+        <v>213900</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="str">
+        <v>Ipec-Plus (Polymaltose+folic acid+zinc)</v>
+      </c>
+      <c r="B102" s="1">
+        <v>76</v>
+      </c>
+      <c r="C102" s="1">
+        <v>270940</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="str">
+        <v>Ipec-Plus (Polymaltose+folic acid+zinc)</v>
+      </c>
+      <c r="B103" s="1">
+        <v>60</v>
+      </c>
+      <c r="C103" s="1">
+        <v>213900</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="str">
+        <v>KiddieCal (Calcium, vitamin D&amp;K)</v>
+      </c>
+      <c r="B104" s="1">
+        <v>60</v>
+      </c>
+      <c r="C104" s="1">
+        <v>580800</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="str">
+        <v>Kogimin (Multivitamine &amp; Minerals)</v>
+      </c>
+      <c r="B105" s="1">
+        <v>60</v>
+      </c>
+      <c r="C105" s="1">
+        <v>207000</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="str">
+        <v>Kogimin (Multivitamine &amp; Minerals)</v>
+      </c>
+      <c r="B106" s="1">
+        <v>8</v>
+      </c>
+      <c r="C106" s="1">
+        <v>27600</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="str">
+        <v>Kogimin (Multivitamine &amp; Minerals)</v>
+      </c>
+      <c r="B107" s="1">
+        <v>58</v>
+      </c>
+      <c r="C107" s="1">
+        <v>200100</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="str">
+        <v>Kogimin (Multivitamine &amp; Minerals)</v>
+      </c>
+      <c r="B108" s="1">
+        <v>30</v>
+      </c>
+      <c r="C108" s="1">
+        <v>103500</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="str">
+        <v>Livosil (Silymarin 140mg)</v>
+      </c>
+      <c r="B109" s="1">
+        <v>120</v>
+      </c>
+      <c r="C109" s="1">
+        <v>897600</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="str">
+        <v>Lorista (Losartan 50mg)</v>
+      </c>
+      <c r="B110" s="1">
+        <v>30</v>
+      </c>
+      <c r="C110" s="1">
+        <v>165600</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="str">
+        <v>Lorista (Losartan 50mg)</v>
+      </c>
+      <c r="B111" s="1">
+        <v>30</v>
+      </c>
+      <c r="C111" s="1">
+        <v>165600</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="str">
+        <v>Lorista (Losartan 50mg)</v>
+      </c>
+      <c r="B112" s="1">
+        <v>30</v>
+      </c>
+      <c r="C112" s="1">
+        <v>165600</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="str">
+        <v>Loxcip (Fexofenadine 180mg)</v>
+      </c>
+      <c r="B113" s="1">
+        <v>32</v>
+      </c>
+      <c r="C113" s="1">
+        <v>172960</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="str">
+        <v>Loxcip (Fexofenadine 180mg)</v>
+      </c>
+      <c r="B114" s="1">
+        <v>8</v>
+      </c>
+      <c r="C114" s="1">
+        <v>43240</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="str">
+        <v>Loxcip (Fexofenadine 180mg)</v>
+      </c>
+      <c r="B115" s="1">
+        <v>16</v>
+      </c>
+      <c r="C115" s="1">
+        <v>86480</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="str">
+        <v>Loxcip (Fexofenadine 180mg)</v>
+      </c>
+      <c r="B116" s="1">
+        <v>32</v>
+      </c>
+      <c r="C116" s="1">
+        <v>172960</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="str">
+        <v>Loxcip (Fexofenadine 180mg)</v>
+      </c>
+      <c r="B117" s="1">
+        <v>30</v>
+      </c>
+      <c r="C117" s="1">
+        <v>162150</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="str">
+        <v>Medi-Neuro Ultra (B1 250mg, B6 250mg, B12 100mcg)</v>
+      </c>
+      <c r="B118" s="1">
+        <v>30</v>
+      </c>
+      <c r="C118" s="1">
+        <v>144900</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="str">
+        <v>Medi-Neuro Ultra (B1 250mg, B6 250mg, B12 100mcg)</v>
+      </c>
+      <c r="B119" s="1">
+        <v>16</v>
+      </c>
+      <c r="C119" s="1">
+        <v>77280</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="str">
+        <v>Medi-Neuro Ultra (B1 250mg, B6 250mg, B12 100mcg)</v>
+      </c>
+      <c r="B120" s="1">
+        <v>30</v>
+      </c>
+      <c r="C120" s="1">
+        <v>144900</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="str">
+        <v>Medi-Neuro Ultra (B1 250mg, B6 250mg, B12 100mcg)</v>
+      </c>
+      <c r="B121" s="1">
+        <v>61</v>
+      </c>
+      <c r="C121" s="1">
+        <v>294630</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="str">
+        <v>Medi-Neuro Ultra (B1 250mg, B6 250mg, B12 100mcg)</v>
+      </c>
+      <c r="B122" s="1">
+        <v>60</v>
+      </c>
+      <c r="C122" s="1">
+        <v>289800</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="str">
+        <v>Medi-Neuro Ultra (B1 250mg, B6 250mg, B12 100mcg)</v>
+      </c>
+      <c r="B123" s="1">
+        <v>16</v>
+      </c>
+      <c r="C123" s="1">
+        <v>77280</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="str">
+        <v>Medrol 16mg (Methylprednisolone)</v>
+      </c>
+      <c r="B124" s="1">
+        <v>12</v>
+      </c>
+      <c r="C124" s="1">
+        <v>54120</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="str">
+        <v>Metadroxyl (Metadoxine 500mg)</v>
+      </c>
+      <c r="B125" s="1">
+        <v>40</v>
+      </c>
+      <c r="C125" s="1">
+        <v>286000</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="str">
+        <v>Metozamin (Metformin 850mg)</v>
+      </c>
+      <c r="B126" s="1">
+        <v>30</v>
+      </c>
+      <c r="C126" s="1">
+        <v>55200</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="str">
+        <v>Metozamin (Metformin 850mg)</v>
+      </c>
+      <c r="B127" s="1">
+        <v>120</v>
+      </c>
+      <c r="C127" s="1">
+        <v>220800</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="str">
+        <v>Mosad MT (Mosapride 5mg)</v>
+      </c>
+      <c r="B128" s="1">
+        <v>60</v>
+      </c>
+      <c r="C128" s="1">
+        <v>165600</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="str">
+        <v>Nolpaza (Pantoprazole 40mg)</v>
+      </c>
+      <c r="B129" s="1">
+        <v>16</v>
+      </c>
+      <c r="C129" s="1">
+        <v>202400</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="str">
+        <v>Nolpaza (Pantoprazole 40mg)</v>
+      </c>
+      <c r="B130" s="1">
+        <v>30</v>
+      </c>
+      <c r="C130" s="1">
+        <v>379500</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="str">
+        <v>Nolpaza (Pantoprazole 40mg)</v>
+      </c>
+      <c r="B131" s="1">
+        <v>30</v>
+      </c>
+      <c r="C131" s="1">
+        <v>379500</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="str">
+        <v>Noraquick (Gabapentin 300mg)</v>
+      </c>
+      <c r="B132" s="1">
+        <v>16</v>
+      </c>
+      <c r="C132" s="1">
+        <v>105600</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="str">
+        <v>Noraquick (Gabapentin 300mg)</v>
+      </c>
+      <c r="B133" s="1">
+        <v>8</v>
+      </c>
+      <c r="C133" s="1">
+        <v>52800</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="str">
+        <v>Onsmix Suspension (Oxethazaine, aluminium, magnesium)</v>
+      </c>
+      <c r="B134" s="1">
+        <v>60</v>
+      </c>
+      <c r="C134" s="1">
+        <v>456600</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="str">
+        <v>Opecerin (Diacerein 50mg)</v>
+      </c>
+      <c r="B135" s="1">
+        <v>60</v>
+      </c>
+      <c r="C135" s="1">
+        <v>504900</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="str">
+        <v>Opecerin (Diacerein 50mg)</v>
+      </c>
+      <c r="B136" s="1">
+        <v>30</v>
+      </c>
+      <c r="C136" s="1">
+        <v>252450</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="str">
+        <v>Opecerin (Diacerein 50mg)</v>
+      </c>
+      <c r="B137" s="1">
+        <v>146</v>
+      </c>
+      <c r="C137" s="1">
+        <v>1228590</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="str">
+        <v>Opecerin (Diacerein 50mg)</v>
+      </c>
+      <c r="B138" s="1">
+        <v>60</v>
+      </c>
+      <c r="C138" s="1">
+        <v>504900</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="str">
+        <v>Optipan (Diacerhein 50mg)</v>
+      </c>
+      <c r="B139" s="1">
+        <v>115</v>
+      </c>
+      <c r="C139" s="1">
+        <v>1252350</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="str">
+        <v>Osart (Olmesartan 20mg)</v>
+      </c>
+      <c r="B140" s="1">
+        <v>10</v>
+      </c>
+      <c r="C140" s="1">
+        <v>82500</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="str">
+        <v>Otibsil (Otilonium bromid 40mg)</v>
+      </c>
+      <c r="B141" s="1">
+        <v>30</v>
+      </c>
+      <c r="C141" s="1">
+        <v>120750</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="str">
+        <v>Otibsil (Otilonium bromid 40mg)</v>
+      </c>
+      <c r="B142" s="1">
+        <v>30</v>
+      </c>
+      <c r="C142" s="1">
+        <v>120750</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="str">
+        <v>Otibsil (Otilonium bromid 40mg)</v>
+      </c>
+      <c r="B143" s="1">
+        <v>159</v>
+      </c>
+      <c r="C143" s="1">
+        <v>639975</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="str">
+        <v>Pantonix (Pantoprazole 40mg)</v>
+      </c>
+      <c r="B144" s="1">
+        <v>30</v>
+      </c>
+      <c r="C144" s="1">
+        <v>198000</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="str">
+        <v>Pantonix (Pantoprazole 40mg)</v>
+      </c>
+      <c r="B145" s="1">
+        <v>30</v>
+      </c>
+      <c r="C145" s="1">
+        <v>198000</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="str">
+        <v>Pitaterol (Pitavastatin 2mg)</v>
+      </c>
+      <c r="B146" s="1">
+        <v>135</v>
+      </c>
+      <c r="C146" s="1">
+        <v>2338875</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="str">
+        <v>Pitaterol (Pitavastatin 2mg)</v>
+      </c>
+      <c r="B147" s="1">
+        <v>60</v>
+      </c>
+      <c r="C147" s="1">
+        <v>1039500</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="str">
+        <v>Prepentin (Pregabalin 75mg)</v>
+      </c>
+      <c r="B148" s="1">
+        <v>30</v>
+      </c>
+      <c r="C148" s="1">
+        <v>445500</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="str">
+        <v>Prohepatis (Ursodesoxycholic 200mg)</v>
+      </c>
+      <c r="B149" s="1">
+        <v>30</v>
+      </c>
+      <c r="C149" s="1">
+        <v>264000</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="str">
+        <v>Prohepatis (Ursodesoxycholic 200mg)</v>
+      </c>
+      <c r="B150" s="1">
+        <v>333</v>
+      </c>
+      <c r="C150" s="1">
+        <v>2930400</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="str">
+        <v>Prohepatis (Ursodesoxycholic 200mg)</v>
+      </c>
+      <c r="B151" s="1">
+        <v>90</v>
+      </c>
+      <c r="C151" s="1">
+        <v>792000</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="str">
+        <v>Reduze (Glucosamine, chondroitin, zingiber, phellodendron amurense)</v>
+      </c>
+      <c r="B152" s="1">
+        <v>60</v>
+      </c>
+      <c r="C152" s="1">
+        <v>462000</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="str">
+        <v>Reduze (Glucosamine, chondroitin, zingiber, phellodendron amurense)</v>
+      </c>
+      <c r="B153" s="1">
+        <v>85</v>
+      </c>
+      <c r="C153" s="1">
+        <v>654500</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="str">
+        <v>Reduze (Glucosamine, chondroitin, zingiber, phellodendron amurense)</v>
+      </c>
+      <c r="B154" s="1">
+        <v>60</v>
+      </c>
+      <c r="C154" s="1">
+        <v>462000</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="str">
+        <v>Remem (Ginkgo biloba 120mg)</v>
+      </c>
+      <c r="B155" s="1">
+        <v>30</v>
+      </c>
+      <c r="C155" s="1">
+        <v>277200</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="str">
+        <v>Rhaminas (Glucosamine, chondroitin)</v>
+      </c>
+      <c r="B156" s="1">
+        <v>30</v>
+      </c>
+      <c r="C156" s="1">
+        <v>151800</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="str">
+        <v>Rhaminas (Glucosamine, chondroitin)</v>
+      </c>
+      <c r="B157" s="1">
+        <v>76</v>
+      </c>
+      <c r="C157" s="1">
+        <v>384560</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="str">
+        <v>Rosutrox (Rosuvastatin 10mg)</v>
+      </c>
+      <c r="B158" s="1">
+        <v>8</v>
+      </c>
+      <c r="C158" s="1">
+        <v>70400</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="str">
+        <v>Rosutrox (Rosuvastatin 10mg)</v>
+      </c>
+      <c r="B159" s="1">
+        <v>15</v>
+      </c>
+      <c r="C159" s="1">
+        <v>132000</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="str">
+        <v>Rosutrox (Rosuvastatin 10mg)</v>
+      </c>
+      <c r="B160" s="1">
+        <v>120</v>
+      </c>
+      <c r="C160" s="1">
+        <v>1056000</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="str">
+        <v>Rosutrox (Rosuvastatin 10mg)</v>
+      </c>
+      <c r="B161" s="1">
+        <v>60</v>
+      </c>
+      <c r="C161" s="1">
+        <v>528000</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="str">
+        <v>Seovigo (Ginkgo biloba 80mg)</v>
+      </c>
+      <c r="B162" s="1">
+        <v>60</v>
+      </c>
+      <c r="C162" s="1">
+        <v>324300</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="str">
+        <v>Seovigo (Ginkgo biloba 80mg)</v>
+      </c>
+      <c r="B163" s="1">
+        <v>30</v>
+      </c>
+      <c r="C163" s="1">
+        <v>162150</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="str">
+        <v>Seovigo (Ginkgo biloba 80mg)</v>
+      </c>
+      <c r="B164" s="1">
+        <v>201</v>
+      </c>
+      <c r="C164" s="1">
+        <v>1086405</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="str">
+        <v>Seovigo (Ginkgo biloba 80mg)</v>
+      </c>
+      <c r="B165" s="1">
+        <v>24</v>
+      </c>
+      <c r="C165" s="1">
+        <v>129720</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="str">
+        <v>Sotig (Esomeprazole 40mg)</v>
+      </c>
+      <c r="B166" s="1">
+        <v>15</v>
+      </c>
+      <c r="C166" s="1">
+        <v>214500</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="str">
+        <v>Sotig (Esomeprazole 40mg)</v>
+      </c>
+      <c r="B167" s="1">
+        <v>16</v>
+      </c>
+      <c r="C167" s="1">
+        <v>228800</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="str">
+        <v>Sotig (Esomeprazole 40mg)</v>
+      </c>
+      <c r="B168" s="1">
+        <v>30</v>
+      </c>
+      <c r="C168" s="1">
+        <v>429000</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="str">
+        <v>Sotig (Esomeprazole 40mg)</v>
+      </c>
+      <c r="B169" s="1">
+        <v>30</v>
+      </c>
+      <c r="C169" s="1">
+        <v>429000</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="str">
+        <v>Sotig (Esomeprazole 40mg)</v>
+      </c>
+      <c r="B170" s="1">
+        <v>30</v>
+      </c>
+      <c r="C170" s="1">
+        <v>429000</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="str">
+        <v>Sotinin</v>
+      </c>
+      <c r="B171" s="1">
+        <v>2</v>
+      </c>
+      <c r="C171" s="1">
+        <v>359400</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="str">
+        <v>Sotinin</v>
+      </c>
+      <c r="B172" s="1">
+        <v>1</v>
+      </c>
+      <c r="C172" s="1">
+        <v>179700</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="str">
+        <v>Sotinin</v>
+      </c>
+      <c r="B173" s="1">
+        <v>5</v>
+      </c>
+      <c r="C173" s="1">
+        <v>898500</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="str">
+        <v>Sotinin</v>
+      </c>
+      <c r="B174" s="1">
+        <v>2</v>
+      </c>
+      <c r="C174" s="1">
+        <v>359400</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="str">
+        <v>Sotinin</v>
+      </c>
+      <c r="B175" s="1">
+        <v>1</v>
+      </c>
+      <c r="C175" s="1">
+        <v>179700</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="str">
+        <v>SunnyRoitin (Citicoline 500mg)</v>
+      </c>
+      <c r="B176" s="1">
+        <v>60</v>
+      </c>
+      <c r="C176" s="1">
+        <v>1188000</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="str">
+        <v>SunnyRoitin (Citicoline 500mg)</v>
+      </c>
+      <c r="B177" s="1">
+        <v>60</v>
+      </c>
+      <c r="C177" s="1">
+        <v>1188000</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="str">
+        <v>Targinos (Arginine 400mg)</v>
+      </c>
+      <c r="B178" s="1">
+        <v>150</v>
+      </c>
+      <c r="C178" s="1">
+        <v>603750</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="str">
+        <v>Tazilex (Methimazol 5mg)</v>
+      </c>
+      <c r="B179" s="1">
+        <v>10</v>
+      </c>
+      <c r="C179" s="1">
+        <v>12650</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="str">
+        <v>Tazilex (Methimazol 5mg)</v>
+      </c>
+      <c r="B180" s="1">
+        <v>60</v>
+      </c>
+      <c r="C180" s="1">
+        <v>75900</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="str">
+        <v>Verist (Betahistine 16mg)</v>
+      </c>
+      <c r="B181" s="1">
+        <v>45</v>
+      </c>
+      <c r="C181" s="1">
+        <v>129375</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="str">
+        <v>Verist (Betahistine 16mg)</v>
+      </c>
+      <c r="B182" s="1">
+        <v>99</v>
+      </c>
+      <c r="C182" s="1">
+        <v>284625</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="str">
+        <v>Verist (Betahistine 16mg)</v>
+      </c>
+      <c r="B183" s="1">
+        <v>30</v>
+      </c>
+      <c r="C183" s="1">
+        <v>86250</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="str">
+        <v>Verist (Betahistine 16mg)</v>
+      </c>
+      <c r="B184" s="1">
+        <v>30</v>
+      </c>
+      <c r="C184" s="1">
+        <v>86250</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="str">
+        <v>Vespratab kit (Clarithromycin, tinidazole, esomeprazole)</v>
+      </c>
+      <c r="B185" s="1">
+        <v>22</v>
+      </c>
+      <c r="C185" s="1">
+        <v>2032800</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="str">
+        <v>Vexinir (Cefdinir 300mg)</v>
+      </c>
+      <c r="B186" s="1">
+        <v>9</v>
+      </c>
+      <c r="C186" s="1">
+        <v>162360</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="str">
+        <v>Vexinir (Cefdinir 300mg)</v>
+      </c>
+      <c r="B187" s="1">
+        <v>24</v>
+      </c>
+      <c r="C187" s="1">
+        <v>432960</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="str">
+        <v>Vocfor (Lornoxicam 4mg)</v>
+      </c>
+      <c r="B188" s="1">
+        <v>8</v>
+      </c>
+      <c r="C188" s="1">
+        <v>77968</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="str">
+        <v>Zinecox (Cefditoren 200mg)</v>
+      </c>
+      <c r="B189" s="1">
+        <v>88</v>
+      </c>
+      <c r="C189" s="1">
+        <v>2420000</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="str">
+        <v>Zinecox (Cefditoren 200mg)</v>
+      </c>
+      <c r="B190" s="1">
+        <v>12</v>
+      </c>
+      <c r="C190" s="1">
+        <v>330000</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="str">
+        <v>Zinecox (Cefditoren 200mg)</v>
+      </c>
+      <c r="B191" s="1">
+        <v>52</v>
+      </c>
+      <c r="C191" s="1">
+        <v>1430000</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="str">
+        <v>Zlatko-50 (Sitagliptin)</v>
+      </c>
+      <c r="B192" s="1">
+        <v>60</v>
+      </c>
+      <c r="C192" s="1">
+        <v>627000</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="str">
+        <v>Zlatko-50 (Sitagliptin)</v>
+      </c>
+      <c r="B193" s="1">
+        <v>30</v>
+      </c>
+      <c r="C193" s="1">
+        <v>313500</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="str">
+        <v>Zlatko-50 (Sitagliptin)</v>
+      </c>
+      <c r="B194" s="1">
+        <v>30</v>
+      </c>
+      <c r="C194" s="1">
+        <v>313500</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="str">
+        <v>Zuiver (Ursodeoxycholic acid 300mg)</v>
+      </c>
+      <c r="B195" s="1">
+        <v>70</v>
+      </c>
+      <c r="C195" s="1">
+        <v>816200</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="str">
+        <v>Zuiver (Ursodeoxycholic acid 300mg)</v>
+      </c>
+      <c r="B196" s="1">
+        <v>30</v>
+      </c>
+      <c r="C196" s="1">
+        <v>349800</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="str">
+        <v>Zuiver (Ursodeoxycholic acid 300mg)</v>
+      </c>
+      <c r="B197" s="1">
+        <v>60</v>
+      </c>
+      <c r="C197" s="1">
+        <v>699600</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="str">
+        <v>Zuiver (Ursodeoxycholic acid 300mg)</v>
+      </c>
+      <c r="B198" s="1">
+        <v>30</v>
+      </c>
+      <c r="C198" s="1">
+        <v>349800</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="str">
+        <v xml:space="preserve">Zytovyrin S (Simvastatin,ezetimib) </v>
+      </c>
+      <c r="B199" s="1">
+        <v>119</v>
+      </c>
+      <c r="C199" s="1">
+        <v>1151920</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="str">
+        <v xml:space="preserve">Zytovyrin S (Simvastatin,ezetimib) </v>
+      </c>
+      <c r="B200" s="1">
+        <v>15</v>
+      </c>
+      <c r="C200" s="1">
+        <v>145200</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="str">
+        <v xml:space="preserve">Zytovyrin S (Simvastatin,ezetimib) </v>
+      </c>
+      <c r="B201" s="1">
+        <v>15</v>
+      </c>
+      <c r="C201" s="1">
+        <v>145200</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="str">
+        <v xml:space="preserve">Zytovyrin S (Simvastatin,ezetimib) </v>
+      </c>
+      <c r="B202" s="1">
+        <v>10</v>
+      </c>
+      <c r="C202" s="1">
+        <v>96800</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="str">
         <v>Tổng cộng</v>
       </c>
-      <c r="B89" s="1">
-        <v>12762</v>
-      </c>
-      <c r="C89" s="1">
-        <v>NaN</v>
+      <c r="B203" s="1">
+        <v>10298</v>
+      </c>
+      <c r="C203" s="1">
+        <v>84521423</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C89"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C203"/>
   </ignoredErrors>
 </worksheet>
 </file>